--- a/Data/Export/Common/道具类型.xlsx
+++ b/Data/Export/Common/道具类型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_tk\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BA1629-7721-4D94-B3AB-3B4A93B87AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372F0E11-A7C1-4B81-BE27-C581CD01300F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27735" yWindow="2280" windowWidth="19830" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4695" yWindow="510" windowWidth="19830" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemTypes" sheetId="36" r:id="rId1"/>
@@ -892,7 +892,7 @@
   <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1957,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>55</v>
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>56</v>

--- a/Data/Export/Common/道具类型.xlsx
+++ b/Data/Export/Common/道具类型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07FBC5C-6A55-4FD7-8E96-49DF75D47208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A79F29F-1047-4A58-BE40-E89FAE552B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="510" windowWidth="19830" windowHeight="13320" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemTypes" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关联适应能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,6 +239,60 @@
   </si>
   <si>
     <t>800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>参数3</t>
+  </si>
+  <si>
+    <t>p1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船为1000人所需数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needTechnique</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -421,9 +471,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -745,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:Z69"/>
+  <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -758,22 +805,23 @@
     <col min="3" max="3" width="6.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="54.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -788,18 +836,26 @@
         <v>15</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="13"/>
+      <c r="I1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
@@ -808,14 +864,15 @@
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="6"/>
-    </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U1" s="13"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="6"/>
+    </row>
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -824,28 +881,31 @@
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
-      <c r="G2" s="2"/>
+      <c r="G2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA2" s="2"/>
+    </row>
+    <row r="3" spans="1:27" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -859,21 +919,29 @@
         <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="J3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
@@ -888,46 +956,56 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
-    </row>
-    <row r="4" spans="1:26" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA3" s="7"/>
+    </row>
+    <row r="4" spans="1:27" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="J4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -940,16 +1018,16 @@
       <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="4"/>
+      <c r="I5" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -961,9 +1039,10 @@
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
-      <c r="Y5" s="4"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="X5" s="4"/>
+      <c r="Z5" s="4"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -977,16 +1056,16 @@
       <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="4"/>
+      <c r="I6" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -998,14 +1077,15 @@
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
-      <c r="Y6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="X6" s="4"/>
+      <c r="Z6" s="4"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -1013,16 +1093,16 @@
       <c r="E7" s="4">
         <v>3</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="4"/>
+      <c r="I7" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -1034,14 +1114,15 @@
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
-      <c r="Y7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="X7" s="4"/>
+      <c r="Z7" s="4"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -1049,16 +1130,16 @@
       <c r="E8" s="4">
         <v>4</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="4"/>
+      <c r="I8" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1070,9 +1151,10 @@
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
-      <c r="Y8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="X8" s="4"/>
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -1080,21 +1162,21 @@
         <v>18</v>
       </c>
       <c r="D9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="4">
         <v>5</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="4"/>
+      <c r="I9" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1106,9 +1188,10 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
-      <c r="Y9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="X9" s="4"/>
+      <c r="Z9" s="4"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -1116,21 +1199,24 @@
         <v>19</v>
       </c>
       <c r="D10" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="4">
-        <v>6</v>
-      </c>
-      <c r="F10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="4"/>
+      <c r="I10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -1142,31 +1228,35 @@
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
-      <c r="Y10" s="4"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="X10" s="4"/>
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="4">
-        <v>6</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>32</v>
+        <v>7</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1178,31 +1268,35 @@
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
-      <c r="Y11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="X11" s="4"/>
+      <c r="Z11" s="4"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="4">
-        <v>6</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1214,31 +1308,35 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
-      <c r="Y12" s="4"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="X12" s="4"/>
+      <c r="Z12" s="4"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="4">
-        <v>6</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1250,9 +1348,10 @@
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
-      <c r="Y13" s="4"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="X13" s="4"/>
+      <c r="Z13" s="4"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -1260,21 +1359,24 @@
         <v>23</v>
       </c>
       <c r="D14" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="4">
-        <v>7</v>
-      </c>
-      <c r="F14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="4"/>
+      <c r="I14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1286,9 +1388,10 @@
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
-      <c r="Y14" s="4"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="X14" s="4"/>
+      <c r="Z14" s="4"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -1296,21 +1399,24 @@
         <v>24</v>
       </c>
       <c r="D15" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" s="4">
-        <v>7</v>
-      </c>
-      <c r="F15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L15" s="4"/>
+      <c r="I15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1322,9 +1428,10 @@
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
-      <c r="Y15" s="4"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="X15" s="4"/>
+      <c r="Z15" s="4"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -1332,21 +1439,24 @@
         <v>25</v>
       </c>
       <c r="D16" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="4">
-        <v>7</v>
-      </c>
-      <c r="F16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="4"/>
+      <c r="I16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1358,15 +1468,16 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
-      <c r="Y16" s="4"/>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X16" s="4"/>
+      <c r="Z16" s="4"/>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="G17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -1378,15 +1489,16 @@
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
-      <c r="Y17" s="4"/>
-    </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X17" s="4"/>
+      <c r="Z17" s="4"/>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="G18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -1398,412 +1510,465 @@
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
-      <c r="Y18" s="4"/>
-    </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X18" s="4"/>
+      <c r="Z18" s="4"/>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="U19" s="4"/>
+      <c r="G19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
-      <c r="Y19" s="4"/>
-    </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X19" s="4"/>
+      <c r="Z19" s="4"/>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="U20" s="4"/>
+      <c r="G20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
-      <c r="Y20" s="4"/>
-    </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X20" s="4"/>
+      <c r="Z20" s="4"/>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="U21" s="4"/>
+      <c r="G21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
-      <c r="Y21" s="4"/>
-    </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X21" s="4"/>
+      <c r="Z21" s="4"/>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="U22" s="4"/>
+      <c r="G22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
-      <c r="Y22" s="4"/>
-    </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X22" s="4"/>
+      <c r="Z22" s="4"/>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="U23" s="4"/>
+      <c r="G23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
-      <c r="Y23" s="4"/>
-    </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X23" s="4"/>
+      <c r="Z23" s="4"/>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="U24" s="4"/>
+      <c r="G24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
-      <c r="Y24" s="4"/>
-    </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X24" s="4"/>
+      <c r="Z24" s="4"/>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="U25" s="4"/>
+      <c r="G25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
-      <c r="Y25" s="4"/>
-    </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X25" s="4"/>
+      <c r="Z25" s="4"/>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="U26" s="4"/>
+      <c r="G26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
-      <c r="Y26" s="4"/>
-    </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X26" s="4"/>
+      <c r="Z26" s="4"/>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="U27" s="4"/>
+      <c r="G27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
-      <c r="Y27" s="4"/>
-    </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X27" s="4"/>
+      <c r="Z27" s="4"/>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="U28" s="4"/>
+      <c r="G28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
-      <c r="Y28" s="4"/>
-    </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X28" s="4"/>
+      <c r="Z28" s="4"/>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="U29" s="4"/>
+      <c r="G29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
-      <c r="Y29" s="4"/>
-    </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X29" s="4"/>
+      <c r="Z29" s="4"/>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="U30" s="4"/>
+      <c r="G30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
-      <c r="Y30" s="4"/>
-    </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X30" s="4"/>
+      <c r="Z30" s="4"/>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="U31" s="4"/>
+      <c r="G31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
-      <c r="Y31" s="4"/>
-    </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X31" s="4"/>
+      <c r="Z31" s="4"/>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="U32" s="4"/>
+      <c r="G32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
-      <c r="Y32" s="4"/>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X32" s="4"/>
+      <c r="Z32" s="4"/>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="U33" s="4"/>
+      <c r="G33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
-      <c r="Y33" s="4"/>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X33" s="4"/>
+      <c r="Z33" s="4"/>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="U34" s="4"/>
+      <c r="G34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
-      <c r="Y34" s="4"/>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X34" s="4"/>
+      <c r="Z34" s="4"/>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="U35" s="4"/>
+      <c r="G35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
-      <c r="Y35" s="4"/>
-    </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X35" s="4"/>
+      <c r="Z35" s="4"/>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="U36" s="4"/>
+      <c r="G36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
-      <c r="Y36" s="4"/>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X36" s="4"/>
+      <c r="Z36" s="4"/>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="U37" s="4"/>
+      <c r="G37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
-      <c r="Y37" s="4"/>
-    </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X37" s="4"/>
+      <c r="Z37" s="4"/>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="U38" s="4"/>
+      <c r="G38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
-      <c r="Y38" s="4"/>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X38" s="4"/>
+      <c r="Z38" s="4"/>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="U39" s="4"/>
+      <c r="G39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
-      <c r="Y39" s="4"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X39" s="4"/>
+      <c r="Z39" s="4"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="U40" s="4"/>
+      <c r="G40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
-      <c r="Y40" s="4"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X40" s="4"/>
+      <c r="Z40" s="4"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="U41" s="4"/>
+      <c r="G41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
-      <c r="Y41" s="4"/>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X41" s="4"/>
+      <c r="Z41" s="4"/>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="U42" s="4"/>
+      <c r="G42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
-      <c r="Y42" s="4"/>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X42" s="4"/>
+      <c r="Z42" s="4"/>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="U43" s="4"/>
+      <c r="G43" s="4"/>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
-      <c r="Y43" s="4"/>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X43" s="4"/>
+      <c r="Z43" s="4"/>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="U44" s="4"/>
+      <c r="G44" s="4"/>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
-      <c r="Y44" s="4"/>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X44" s="4"/>
+      <c r="Z44" s="4"/>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="U45" s="4"/>
+      <c r="G45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
-      <c r="Y45" s="4"/>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="X45" s="4"/>
+      <c r="Z45" s="4"/>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="Y46" s="4"/>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="G46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Z46" s="4"/>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.15">
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Export/Common/道具类型.xlsx
+++ b/Data/Export/Common/道具类型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A79F29F-1047-4A58-BE40-E89FAE552B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A382FCE-6B51-4720-956F-0BC2DBB8C3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3744" yWindow="2280" windowWidth="25704" windowHeight="13476" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemTypes" sheetId="36" r:id="rId1"/>
@@ -292,8 +292,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>needTechnique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>validTechId</t>
   </si>
 </sst>
 </file>
@@ -795,33 +794,33 @@
   <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -872,7 +871,7 @@
       <c r="Z1" s="8"/>
       <c r="AA1" s="6"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -905,7 +904,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -958,7 +957,7 @@
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="1:27" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:27" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1005,7 +1004,7 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -1042,7 +1041,7 @@
       <c r="X5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1080,7 +1079,7 @@
       <c r="X6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1117,7 +1116,7 @@
       <c r="X7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1154,7 +1153,7 @@
       <c r="X8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -1191,7 +1190,7 @@
       <c r="X9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -1204,7 +1203,9 @@
       <c r="E10" s="4">
         <v>7</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4">
+        <v>-1</v>
+      </c>
       <c r="G10" s="4" t="s">
         <v>43</v>
       </c>
@@ -1231,7 +1232,7 @@
       <c r="X10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -1244,7 +1245,9 @@
       <c r="E11" s="4">
         <v>7</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
       <c r="G11" s="4" t="s">
         <v>46</v>
       </c>
@@ -1271,7 +1274,7 @@
       <c r="X11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -1284,7 +1287,9 @@
       <c r="E12" s="4">
         <v>9</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4">
+        <v>-2</v>
+      </c>
       <c r="G12" s="4" t="s">
         <v>44</v>
       </c>
@@ -1311,7 +1316,7 @@
       <c r="X12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -1324,7 +1329,9 @@
       <c r="E13" s="4">
         <v>9</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
       <c r="G13" s="4" t="s">
         <v>45</v>
       </c>
@@ -1351,7 +1358,7 @@
       <c r="X13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -1391,7 +1398,7 @@
       <c r="X14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -1431,7 +1438,7 @@
       <c r="X15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -1471,7 +1478,7 @@
       <c r="X16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1492,7 +1499,7 @@
       <c r="X17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1513,7 +1520,7 @@
       <c r="X18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1525,7 +1532,7 @@
       <c r="X19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1537,7 +1544,7 @@
       <c r="X20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1549,7 +1556,7 @@
       <c r="X21" s="4"/>
       <c r="Z21" s="4"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1561,7 +1568,7 @@
       <c r="X22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1573,7 +1580,7 @@
       <c r="X23" s="4"/>
       <c r="Z23" s="4"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1585,7 +1592,7 @@
       <c r="X24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1597,7 +1604,7 @@
       <c r="X25" s="4"/>
       <c r="Z25" s="4"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1609,7 +1616,7 @@
       <c r="X26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1621,7 +1628,7 @@
       <c r="X27" s="4"/>
       <c r="Z27" s="4"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1633,7 +1640,7 @@
       <c r="X28" s="4"/>
       <c r="Z28" s="4"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1645,7 +1652,7 @@
       <c r="X29" s="4"/>
       <c r="Z29" s="4"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1657,7 +1664,7 @@
       <c r="X30" s="4"/>
       <c r="Z30" s="4"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1669,7 +1676,7 @@
       <c r="X31" s="4"/>
       <c r="Z31" s="4"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1681,7 +1688,7 @@
       <c r="X32" s="4"/>
       <c r="Z32" s="4"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1693,7 +1700,7 @@
       <c r="X33" s="4"/>
       <c r="Z33" s="4"/>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1705,7 +1712,7 @@
       <c r="X34" s="4"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1717,7 +1724,7 @@
       <c r="X35" s="4"/>
       <c r="Z35" s="4"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1729,7 +1736,7 @@
       <c r="X36" s="4"/>
       <c r="Z36" s="4"/>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1740,7 +1747,7 @@
       <c r="X37" s="4"/>
       <c r="Z37" s="4"/>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1750,7 +1757,7 @@
       <c r="X38" s="4"/>
       <c r="Z38" s="4"/>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1760,7 +1767,7 @@
       <c r="X39" s="4"/>
       <c r="Z39" s="4"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -1770,7 +1777,7 @@
       <c r="X40" s="4"/>
       <c r="Z40" s="4"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -1780,7 +1787,7 @@
       <c r="X41" s="4"/>
       <c r="Z41" s="4"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -1790,7 +1797,7 @@
       <c r="X42" s="4"/>
       <c r="Z42" s="4"/>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -1800,7 +1807,7 @@
       <c r="X43" s="4"/>
       <c r="Z43" s="4"/>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -1810,7 +1817,7 @@
       <c r="X44" s="4"/>
       <c r="Z44" s="4"/>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -1820,7 +1827,7 @@
       <c r="X45" s="4"/>
       <c r="Z45" s="4"/>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -1829,139 +1836,139 @@
       <c r="X46" s="4"/>
       <c r="Z46" s="4"/>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>

--- a/Data/Export/Common/道具类型.xlsx
+++ b/Data/Export/Common/道具类型.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A382FCE-6B51-4720-956F-0BC2DBB8C3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AA961D-0850-47C3-B61C-36697A7407B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="2280" windowWidth="25704" windowHeight="13476" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemTypes" sheetId="36" r:id="rId1"/>
@@ -124,54 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ui://game/4845_7_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui://game/4845_7_11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>标准装备的兵装，威力是最弱的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,6 +245,54 @@
   </si>
   <si>
     <t>validTechId</t>
+  </si>
+  <si>
+    <t>4845_7_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4845_7_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4845_7_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4845_7_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4845_7_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4845_7_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4845_7_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4845_7_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4845_7_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4845_7_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4845_7_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4845_7_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -794,29 +794,29 @@
   <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" style="2" customWidth="1"/>
     <col min="6" max="6" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -835,7 +835,7 @@
         <v>15</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>9</v>
@@ -844,16 +844,16 @@
         <v>8</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
@@ -884,7 +884,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -918,10 +918,10 @@
         <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>10</v>
@@ -933,13 +933,13 @@
         <v>11</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
@@ -1019,13 +1019,13 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1057,13 +1057,13 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1084,7 +1084,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -1094,13 +1094,13 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1121,7 +1121,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -1131,13 +1131,13 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1168,13 +1168,13 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -1207,16 +1207,16 @@
         <v>-1</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="J10" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -1249,16 +1249,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -1291,16 +1291,16 @@
         <v>-2</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -1333,16 +1333,16 @@
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -1373,16 +1373,16 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1413,16 +1413,16 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -1453,16 +1453,16 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>

--- a/Data/Export/Common/道具类型.xlsx
+++ b/Data/Export/Common/道具类型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AA961D-0850-47C3-B61C-36697A7407B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03FC6E7-DF74-4570-991B-8A538B5AF395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemTypes" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,10 +229,6 @@
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -794,33 +790,33 @@
   <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.6328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -835,7 +831,7 @@
         <v>15</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>9</v>
@@ -871,7 +867,7 @@
       <c r="Z1" s="8"/>
       <c r="AA1" s="6"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -884,7 +880,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -904,7 +900,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -921,7 +917,7 @@
         <v>39</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>10</v>
@@ -957,7 +953,7 @@
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="1:27" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1004,7 +1000,7 @@
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -1022,7 +1018,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>38</v>
@@ -1041,7 +1037,7 @@
       <c r="X5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1060,7 +1056,7 @@
         <v>27</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>42</v>
@@ -1079,7 +1075,7 @@
       <c r="X6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1097,7 +1093,7 @@
         <v>28</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>42</v>
@@ -1116,7 +1112,7 @@
       <c r="X7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1134,7 +1130,7 @@
         <v>29</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>42</v>
@@ -1153,7 +1149,7 @@
       <c r="X8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -1171,7 +1167,7 @@
         <v>30</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>43</v>
@@ -1190,7 +1186,7 @@
       <c r="X9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -1210,7 +1206,7 @@
         <v>31</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>43</v>
@@ -1232,7 +1228,7 @@
       <c r="X10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -1252,7 +1248,7 @@
         <v>34</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>43</v>
@@ -1274,7 +1270,7 @@
       <c r="X11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -1294,7 +1290,7 @@
         <v>32</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>43</v>
@@ -1316,7 +1312,7 @@
       <c r="X12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -1336,7 +1332,7 @@
         <v>33</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>43</v>
@@ -1358,7 +1354,7 @@
       <c r="X13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -1376,13 +1372,10 @@
         <v>35</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1398,7 +1391,7 @@
       <c r="X14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -1416,7 +1409,7 @@
         <v>36</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>51</v>
@@ -1438,7 +1431,7 @@
       <c r="X15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -1456,7 +1449,7 @@
         <v>37</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>51</v>
@@ -1478,7 +1471,7 @@
       <c r="X16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1499,7 +1492,7 @@
       <c r="X17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1520,7 +1513,7 @@
       <c r="X18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1532,7 +1525,7 @@
       <c r="X19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1544,7 +1537,7 @@
       <c r="X20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1556,7 +1549,7 @@
       <c r="X21" s="4"/>
       <c r="Z21" s="4"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1568,7 +1561,7 @@
       <c r="X22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1580,7 +1573,7 @@
       <c r="X23" s="4"/>
       <c r="Z23" s="4"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1592,7 +1585,7 @@
       <c r="X24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1604,7 +1597,7 @@
       <c r="X25" s="4"/>
       <c r="Z25" s="4"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1616,7 +1609,7 @@
       <c r="X26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1628,7 +1621,7 @@
       <c r="X27" s="4"/>
       <c r="Z27" s="4"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1640,7 +1633,7 @@
       <c r="X28" s="4"/>
       <c r="Z28" s="4"/>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1652,7 +1645,7 @@
       <c r="X29" s="4"/>
       <c r="Z29" s="4"/>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1664,7 +1657,7 @@
       <c r="X30" s="4"/>
       <c r="Z30" s="4"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1676,7 +1669,7 @@
       <c r="X31" s="4"/>
       <c r="Z31" s="4"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1688,7 +1681,7 @@
       <c r="X32" s="4"/>
       <c r="Z32" s="4"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1700,7 +1693,7 @@
       <c r="X33" s="4"/>
       <c r="Z33" s="4"/>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1712,7 +1705,7 @@
       <c r="X34" s="4"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1724,7 +1717,7 @@
       <c r="X35" s="4"/>
       <c r="Z35" s="4"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1736,7 +1729,7 @@
       <c r="X36" s="4"/>
       <c r="Z36" s="4"/>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1747,7 +1740,7 @@
       <c r="X37" s="4"/>
       <c r="Z37" s="4"/>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1757,7 +1750,7 @@
       <c r="X38" s="4"/>
       <c r="Z38" s="4"/>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1767,7 +1760,7 @@
       <c r="X39" s="4"/>
       <c r="Z39" s="4"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -1777,7 +1770,7 @@
       <c r="X40" s="4"/>
       <c r="Z40" s="4"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -1787,7 +1780,7 @@
       <c r="X41" s="4"/>
       <c r="Z41" s="4"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -1797,7 +1790,7 @@
       <c r="X42" s="4"/>
       <c r="Z42" s="4"/>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -1807,7 +1800,7 @@
       <c r="X43" s="4"/>
       <c r="Z43" s="4"/>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -1817,7 +1810,7 @@
       <c r="X44" s="4"/>
       <c r="Z44" s="4"/>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -1827,7 +1820,7 @@
       <c r="X45" s="4"/>
       <c r="Z45" s="4"/>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -1836,139 +1829,139 @@
       <c r="X46" s="4"/>
       <c r="Z46" s="4"/>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.15">
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:7" x14ac:dyDescent="0.15">
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>

--- a/Data/Export/Common/道具类型.xlsx
+++ b/Data/Export/Common/道具类型.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03FC6E7-DF74-4570-991B-8A538B5AF395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1970F73-1B0A-4CA0-8C78-782F5ED741AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,22 @@
   </si>
   <si>
     <t>4845_7_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +443,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -477,6 +493,10 @@
     <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -787,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:AA69"/>
+  <dimension ref="A1:AB69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -799,24 +819,24 @@
     <col min="2" max="2" width="6.125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="2"/>
+    <col min="5" max="6" width="9.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:28" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -830,28 +850,28 @@
       <c r="E1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="13"/>
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
       <c r="P1" s="13"/>
@@ -860,14 +880,15 @@
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
       <c r="U1" s="13"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="6"/>
-    </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V1" s="13"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="6"/>
+    </row>
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -875,16 +896,16 @@
       <c r="C2" s="2"/>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="F2"/>
+      <c r="F2" s="18"/>
       <c r="G2"/>
-      <c r="H2" s="2"/>
+      <c r="H2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="14"/>
+      <c r="M2" s="2"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
@@ -893,14 +914,15 @@
       <c r="S2" s="14"/>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
-      <c r="V2" s="2"/>
+      <c r="V2" s="14"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-    </row>
-    <row r="3" spans="1:27" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB2" s="2"/>
+    </row>
+    <row r="3" spans="1:28" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -917,27 +939,29 @@
         <v>39</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -952,8 +976,9 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
-    </row>
-    <row r="4" spans="1:27" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB3" s="7"/>
+    </row>
+    <row r="4" spans="1:28" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -970,16 +995,16 @@
         <v>13</v>
       </c>
       <c r="F4" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>5</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>3</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>5</v>
@@ -990,7 +1015,9 @@
       <c r="L4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="15"/>
+      <c r="M4" s="16" t="s">
+        <v>5</v>
+      </c>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
@@ -999,8 +1026,9 @@
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="V4" s="15"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -1013,17 +1041,19 @@
       <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -1035,9 +1065,10 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Z5" s="4"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Y5" s="4"/>
+      <c r="AA5" s="4"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1051,17 +1082,19 @@
       <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1073,9 +1106,10 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Z6" s="4"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Y6" s="4"/>
+      <c r="AA6" s="4"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -1088,17 +1122,19 @@
       <c r="E7" s="4">
         <v>3</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -1110,9 +1146,10 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
-      <c r="Z7" s="4"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Y7" s="4"/>
+      <c r="AA7" s="4"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -1125,17 +1162,19 @@
       <c r="E8" s="4">
         <v>4</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1147,9 +1186,10 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
-      <c r="Z8" s="4"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Y8" s="4"/>
+      <c r="AA8" s="4"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -1162,17 +1202,19 @@
       <c r="E9" s="4">
         <v>5</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -1184,9 +1226,10 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
-      <c r="Z9" s="4"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Y9" s="4"/>
+      <c r="AA9" s="4"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -1199,22 +1242,24 @@
       <c r="E10" s="4">
         <v>7</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="4">
         <v>-1</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1226,9 +1271,10 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
-      <c r="Z10" s="4"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Y10" s="4"/>
+      <c r="AA10" s="4"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -1241,22 +1287,24 @@
       <c r="E11" s="4">
         <v>7</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -1268,9 +1316,10 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
-      <c r="Z11" s="4"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Y11" s="4"/>
+      <c r="AA11" s="4"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -1283,22 +1332,24 @@
       <c r="E12" s="4">
         <v>9</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="4">
         <v>-2</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -1310,9 +1361,10 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
-      <c r="Z12" s="4"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Y12" s="4"/>
+      <c r="AA12" s="4"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -1325,22 +1377,24 @@
       <c r="E13" s="4">
         <v>9</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="4">
         <v>2</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -1352,9 +1406,10 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
-      <c r="Z13" s="4"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Y13" s="4"/>
+      <c r="AA13" s="4"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -1367,17 +1422,19 @@
       <c r="E14" s="4">
         <v>12</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -1389,9 +1446,10 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
-      <c r="Z14" s="4"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Y14" s="4"/>
+      <c r="AA14" s="4"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -1404,20 +1462,22 @@
       <c r="E15" s="4">
         <v>12</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
+      <c r="F15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -1429,9 +1489,10 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
-      <c r="Z15" s="4"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Y15" s="4"/>
+      <c r="AA15" s="4"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -1444,20 +1505,22 @@
       <c r="E16" s="4">
         <v>12</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
+      <c r="F16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -1469,16 +1532,16 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
-      <c r="Z16" s="4"/>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y16" s="4"/>
+      <c r="AA16" s="4"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="H17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -1490,16 +1553,16 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
-      <c r="Z17" s="4"/>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y17" s="4"/>
+      <c r="AA17" s="4"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="H18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -1511,460 +1574,461 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
-      <c r="Z18" s="4"/>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y18" s="4"/>
+      <c r="AA18" s="4"/>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="V19" s="4"/>
+      <c r="H19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
-      <c r="Z19" s="4"/>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y19" s="4"/>
+      <c r="AA19" s="4"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="V20" s="4"/>
+      <c r="H20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
-      <c r="Z20" s="4"/>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y20" s="4"/>
+      <c r="AA20" s="4"/>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="V21" s="4"/>
+      <c r="H21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
-      <c r="Z21" s="4"/>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y21" s="4"/>
+      <c r="AA21" s="4"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="V22" s="4"/>
+      <c r="H22" s="4"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
-      <c r="Z22" s="4"/>
-    </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y22" s="4"/>
+      <c r="AA22" s="4"/>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="V23" s="4"/>
+      <c r="H23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
-      <c r="Z23" s="4"/>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y23" s="4"/>
+      <c r="AA23" s="4"/>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="V24" s="4"/>
+      <c r="H24" s="4"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
-      <c r="Z24" s="4"/>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y24" s="4"/>
+      <c r="AA24" s="4"/>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="V25" s="4"/>
+      <c r="H25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
-      <c r="Z25" s="4"/>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y25" s="4"/>
+      <c r="AA25" s="4"/>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="V26" s="4"/>
+      <c r="H26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
-      <c r="Z26" s="4"/>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y26" s="4"/>
+      <c r="AA26" s="4"/>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="V27" s="4"/>
+      <c r="H27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
-      <c r="Z27" s="4"/>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y27" s="4"/>
+      <c r="AA27" s="4"/>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="V28" s="4"/>
+      <c r="H28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
-      <c r="Z28" s="4"/>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y28" s="4"/>
+      <c r="AA28" s="4"/>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="V29" s="4"/>
+      <c r="H29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
-      <c r="Z29" s="4"/>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y29" s="4"/>
+      <c r="AA29" s="4"/>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="V30" s="4"/>
+      <c r="H30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
-      <c r="Z30" s="4"/>
-    </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y30" s="4"/>
+      <c r="AA30" s="4"/>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="V31" s="4"/>
+      <c r="H31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
-      <c r="Z31" s="4"/>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y31" s="4"/>
+      <c r="AA31" s="4"/>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="V32" s="4"/>
+      <c r="H32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
-      <c r="Z32" s="4"/>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y32" s="4"/>
+      <c r="AA32" s="4"/>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="V33" s="4"/>
+      <c r="H33" s="4"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
-      <c r="Z33" s="4"/>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y33" s="4"/>
+      <c r="AA33" s="4"/>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="V34" s="4"/>
+      <c r="H34" s="4"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
-      <c r="Z34" s="4"/>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y34" s="4"/>
+      <c r="AA34" s="4"/>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="V35" s="4"/>
+      <c r="H35" s="4"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
-      <c r="Z35" s="4"/>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y35" s="4"/>
+      <c r="AA35" s="4"/>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="V36" s="4"/>
+      <c r="H36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
-      <c r="Z36" s="4"/>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y36" s="4"/>
+      <c r="AA36" s="4"/>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="V37" s="4"/>
+      <c r="H37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
-      <c r="Z37" s="4"/>
-    </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y37" s="4"/>
+      <c r="AA37" s="4"/>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.15">
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="V38" s="4"/>
+      <c r="H38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
-      <c r="Z38" s="4"/>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y38" s="4"/>
+      <c r="AA38" s="4"/>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.15">
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="V39" s="4"/>
+      <c r="H39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
-      <c r="Z39" s="4"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y39" s="4"/>
+      <c r="AA39" s="4"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.15">
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="V40" s="4"/>
+      <c r="H40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
-      <c r="Z40" s="4"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y40" s="4"/>
+      <c r="AA40" s="4"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.15">
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="V41" s="4"/>
+      <c r="H41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
-      <c r="Z41" s="4"/>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y41" s="4"/>
+      <c r="AA41" s="4"/>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.15">
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="V42" s="4"/>
+      <c r="H42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
-      <c r="Z42" s="4"/>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y42" s="4"/>
+      <c r="AA42" s="4"/>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.15">
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="V43" s="4"/>
+      <c r="H43" s="4"/>
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
-      <c r="Z43" s="4"/>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y43" s="4"/>
+      <c r="AA43" s="4"/>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.15">
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
       <c r="G44" s="4"/>
-      <c r="V44" s="4"/>
+      <c r="H44" s="4"/>
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
-      <c r="Z44" s="4"/>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y44" s="4"/>
+      <c r="AA44" s="4"/>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.15">
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
       <c r="G45" s="4"/>
-      <c r="V45" s="4"/>
+      <c r="H45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
-      <c r="Z45" s="4"/>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y45" s="4"/>
+      <c r="AA45" s="4"/>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.15">
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Z46" s="4"/>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="H46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="AA46" s="4"/>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.15">
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.15">
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
       <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
       <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
       <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
       <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
       <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
       <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
       <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
       <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
